--- a/ListasDatos/Cruz Alejo José Armando_2021.xlsx
+++ b/ListasDatos/Cruz Alejo José Armando_2021.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="715">
   <si>
     <t>NC</t>
   </si>
@@ -1035,7 +1035,7 @@
     <t>loganzurielm@gmail.com</t>
   </si>
   <si>
-    <t>yairprz26@gmail.com</t>
+    <t>yair26prz@gmail.com</t>
   </si>
   <si>
     <t>esrammm2503@gmail.com</t>
@@ -1254,6 +1254,9 @@
     <t>ROSAURA BONILLA BAUTISTA</t>
   </si>
   <si>
+    <t>BLANCA ESTELA SANDOVAL DÍAZ</t>
+  </si>
+  <si>
     <t>VALENTE CLEMENTE IXMATLAHUA</t>
   </si>
   <si>
@@ -1338,6 +1341,9 @@
     <t>VICENTE VALENCIA ZAMORA</t>
   </si>
   <si>
+    <t>MARÍA TEREZA RÓDRIGUEZ LOPEZ</t>
+  </si>
+  <si>
     <t>RAMIRO VEGA MUÑOZ</t>
   </si>
   <si>
@@ -1419,6 +1425,9 @@
     <t>Chirrin440@gmail.com</t>
   </si>
   <si>
+    <t>Maytequila133@gmail.com</t>
+  </si>
+  <si>
     <t>ramivega.1296@gmail.com</t>
   </si>
   <si>
@@ -1512,6 +1521,9 @@
     <t>2722132775</t>
   </si>
   <si>
+    <t>2721270249</t>
+  </si>
+  <si>
     <t>2721972586</t>
   </si>
   <si>
@@ -1809,7 +1821,7 @@
     <t>2722340871</t>
   </si>
   <si>
-    <t>5566865294</t>
+    <t>6631083766</t>
   </si>
   <si>
     <t>2721023506</t>
@@ -1920,7 +1932,7 @@
     <t>ELEAZAR CLEMENTE GALLARDO</t>
   </si>
   <si>
-    <t>FINADO FINADO FINADO</t>
+    <t>MARÍA FILOMENA HERNÁNDEZ CHONCOA</t>
   </si>
   <si>
     <t>ARTURO CONDADO SOSA</t>
@@ -1935,6 +1947,9 @@
     <t>MARTIN FLORIBERTO FLORENCIO REYES</t>
   </si>
   <si>
+    <t>GABRIELA FLORES DE LA CRUZ</t>
+  </si>
+  <si>
     <t>GUADALUPE VEGA LÓPEZ</t>
   </si>
   <si>
@@ -1968,7 +1983,7 @@
     <t>JOSÉ ALONSO MORALES LÓPEZ</t>
   </si>
   <si>
-    <t>JUAN MAURICIO LUNA HERNÁNDEZ</t>
+    <t>JUAN MAURICIO MUÑOZ MARTINEZ</t>
   </si>
   <si>
     <t>JOSÉ PORFIRIO OCTAVIANO BALDERAS</t>
@@ -2079,6 +2094,9 @@
     <t>2721222024</t>
   </si>
   <si>
+    <t>2722480188</t>
+  </si>
+  <si>
     <t>2721552625</t>
   </si>
   <si>
@@ -2089,6 +2107,9 @@
   </si>
   <si>
     <t>2721543169</t>
+  </si>
+  <si>
+    <t>2721135977</t>
   </si>
   <si>
     <t>2721354518</t>
@@ -3603,10 +3624,10 @@
         <v>407</v>
       </c>
       <c r="I2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="J2" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3632,10 +3653,10 @@
         <v>408</v>
       </c>
       <c r="I3" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="J3" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3661,10 +3682,10 @@
         <v>409</v>
       </c>
       <c r="I4" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="J4" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3696,7 +3717,7 @@
         <v>326</v>
       </c>
       <c r="J5" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3747,6 +3768,15 @@
       <c r="F7" t="s">
         <v>366</v>
       </c>
+      <c r="H7" t="s">
+        <v>412</v>
+      </c>
+      <c r="I7" t="s">
+        <v>328</v>
+      </c>
+      <c r="J7" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
@@ -3771,13 +3801,13 @@
         <v>367</v>
       </c>
       <c r="H8" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I8" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="J8" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3803,13 +3833,13 @@
         <v>368</v>
       </c>
       <c r="H9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I9" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J9" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3835,13 +3865,13 @@
         <v>399</v>
       </c>
       <c r="H10" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I10" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="J10" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3867,10 +3897,10 @@
         <v>400</v>
       </c>
       <c r="H11" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I11" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3896,13 +3926,13 @@
         <v>401</v>
       </c>
       <c r="H12" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I12" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="J12" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3928,13 +3958,13 @@
         <v>372</v>
       </c>
       <c r="H13" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I13" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="J13" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3957,13 +3987,13 @@
         <v>373</v>
       </c>
       <c r="H14" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="I14" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J14" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3989,13 +4019,13 @@
         <v>374</v>
       </c>
       <c r="H15" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I15" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="J15" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4021,13 +4051,13 @@
         <v>375</v>
       </c>
       <c r="H16" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I16" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J16" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4050,13 +4080,13 @@
         <v>376</v>
       </c>
       <c r="H17" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="I17" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J17" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4079,13 +4109,13 @@
         <v>377</v>
       </c>
       <c r="H18" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I18" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="J18" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4108,13 +4138,13 @@
         <v>378</v>
       </c>
       <c r="H19" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="I19" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="J19" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -4140,13 +4170,13 @@
         <v>379</v>
       </c>
       <c r="H20" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="I20" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="J20" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -4172,7 +4202,7 @@
         <v>380</v>
       </c>
       <c r="H21" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -4198,13 +4228,13 @@
         <v>381</v>
       </c>
       <c r="H22" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I22" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="J22" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -4230,13 +4260,13 @@
         <v>402</v>
       </c>
       <c r="H23" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I23" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="J23" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -4259,7 +4289,7 @@
         <v>383</v>
       </c>
       <c r="H24" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I24" t="s">
         <v>345</v>
@@ -4291,13 +4321,13 @@
         <v>384</v>
       </c>
       <c r="H25" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="I25" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="J25" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -4323,13 +4353,13 @@
         <v>403</v>
       </c>
       <c r="H26" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I26" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="J26" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -4355,10 +4385,10 @@
         <v>386</v>
       </c>
       <c r="H27" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="J27" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -4381,13 +4411,13 @@
         <v>387</v>
       </c>
       <c r="H28" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="I28" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="J28" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -4413,13 +4443,13 @@
         <v>388</v>
       </c>
       <c r="H29" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I29" t="s">
         <v>350</v>
       </c>
       <c r="J29" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -4445,10 +4475,10 @@
         <v>389</v>
       </c>
       <c r="H30" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="J30" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -4474,13 +4504,13 @@
         <v>390</v>
       </c>
       <c r="H31" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I31" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="J31" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -4506,13 +4536,13 @@
         <v>404</v>
       </c>
       <c r="H32" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I32" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="J32" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -4538,13 +4568,13 @@
         <v>405</v>
       </c>
       <c r="H33" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I33" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="J33" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -4567,13 +4597,13 @@
         <v>393</v>
       </c>
       <c r="H34" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="I34" t="s">
         <v>355</v>
       </c>
       <c r="J34" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -4599,13 +4629,13 @@
         <v>406</v>
       </c>
       <c r="H35" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I35" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="J35" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -4631,13 +4661,13 @@
         <v>395</v>
       </c>
       <c r="H36" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I36" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="J36" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -4659,6 +4689,15 @@
       <c r="F37" t="s">
         <v>396</v>
       </c>
+      <c r="H37" t="s">
+        <v>441</v>
+      </c>
+      <c r="I37" t="s">
+        <v>469</v>
+      </c>
+      <c r="J37" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38">
@@ -4680,13 +4719,13 @@
         <v>397</v>
       </c>
       <c r="H38" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="I38" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="J38" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -4712,7 +4751,7 @@
         <v>398</v>
       </c>
       <c r="H39" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="I39" t="s">
         <v>360</v>
@@ -4783,28 +4822,28 @@
         <v>254</v>
       </c>
       <c r="C2" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="D2" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="E2" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="F2" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="G2" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="H2" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="I2" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="J2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4815,28 +4854,28 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D3" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="E3" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="F3" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="G3" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="H3" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="I3" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="J3" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4844,28 +4883,28 @@
         <v>19330051920088</v>
       </c>
       <c r="B4" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C4" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="D4" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="E4" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="F4" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="H4" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="I4" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="J4" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4876,28 +4915,28 @@
         <v>284</v>
       </c>
       <c r="C5" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="D5" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="E5" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="F5" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="G5" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="H5" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="I5" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="J5" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4908,28 +4947,28 @@
         <v>284</v>
       </c>
       <c r="C6" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="D6" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="E6" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="F6" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="G6" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="H6" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="I6" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="J6" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4943,25 +4982,25 @@
         <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="E7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="F7" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="G7" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="H7" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="I7" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="J7" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4969,25 +5008,28 @@
         <v>19330051920091</v>
       </c>
       <c r="B8" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="E8" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="F8" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="G8" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="H8" t="s">
-        <v>634</v>
+        <v>638</v>
+      </c>
+      <c r="J8" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4995,28 +5037,28 @@
         <v>19330051920093</v>
       </c>
       <c r="B9" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C9" t="s">
         <v>261</v>
       </c>
       <c r="D9" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="E9" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="F9" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="H9" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="I9" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="J9" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5027,22 +5069,22 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="D10" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E10" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="F10" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="H10" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="J10" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5056,22 +5098,22 @@
         <v>261</v>
       </c>
       <c r="D11" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="E11" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="F11" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="H11" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="I11" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="J11" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5079,31 +5121,31 @@
         <v>19330051920097</v>
       </c>
       <c r="B12" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C12" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D12" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="E12" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="F12" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="G12" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="H12" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="I12" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="J12" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5117,13 +5159,19 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="E13" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="F13" t="s">
-        <v>597</v>
+        <v>601</v>
+      </c>
+      <c r="H13" t="s">
+        <v>643</v>
+      </c>
+      <c r="J13" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5137,22 +5185,22 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="E14" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="F14" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="G14" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="H14" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="J14" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5166,25 +5214,25 @@
         <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="E15" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="F15" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="G15" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="H15" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="I15" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="J15" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5195,28 +5243,28 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="D16" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="E16" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="F16" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="G16" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="H16" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="I16" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="J16" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5227,25 +5275,25 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="D17" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="E17" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="F17" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="H17" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="I17" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="J17" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5256,28 +5304,28 @@
         <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="D18" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="E18" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="F18" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="G18" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="H18" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="I18" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="J18" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5288,28 +5336,28 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="D19" t="s">
         <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="F19" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="G19" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="H19" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="I19" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="J19" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -5317,31 +5365,31 @@
         <v>19330051920106</v>
       </c>
       <c r="B20" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C20" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="D20" t="s">
         <v>297</v>
       </c>
       <c r="E20" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="F20" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="G20" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="H20" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="I20" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="J20" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -5349,31 +5397,31 @@
         <v>19330051920107</v>
       </c>
       <c r="B21" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="E21" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F21" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="G21" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="H21" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="I21" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="J21" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -5387,22 +5435,22 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="E22" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="F22" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="H22" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="I22" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="J22" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -5416,25 +5464,25 @@
         <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="E23" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="F23" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="G23" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="H23" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="I23" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="J23" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -5448,25 +5496,25 @@
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="E24" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="F24" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="G24" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="H24" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="I24" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="J24" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -5477,25 +5525,25 @@
         <v>285</v>
       </c>
       <c r="C25" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="D25" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="E25" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="F25" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="G25" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="H25" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="I25" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -5503,28 +5551,28 @@
         <v>19330051920115</v>
       </c>
       <c r="B26" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C26" t="s">
         <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="E26" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="F26" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="H26" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="I26" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="J26" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -5532,28 +5580,28 @@
         <v>19330051920116</v>
       </c>
       <c r="B27" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C27" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="D27" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E27" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="F27" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="H27" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="I27" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="J27" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -5561,31 +5609,31 @@
         <v>19330051920117</v>
       </c>
       <c r="B28" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C28" t="s">
         <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="E28" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="F28" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="G28" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="H28" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="I28" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="J28" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -5593,31 +5641,31 @@
         <v>19330051920118</v>
       </c>
       <c r="B29" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C29" t="s">
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="E29" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="F29" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="G29" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="H29" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="I29" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="J29" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -5625,31 +5673,31 @@
         <v>19330051920119</v>
       </c>
       <c r="B30" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="C30" t="s">
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="E30" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="F30" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="G30" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="H30" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="I30" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="J30" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -5657,25 +5705,25 @@
         <v>19330051920120</v>
       </c>
       <c r="B31" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="C31" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="D31" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="E31" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="F31" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="H31" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="J31" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -5686,25 +5734,25 @@
         <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D32" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="E32" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="F32" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="G32" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="H32" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="J32" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -5712,31 +5760,31 @@
         <v>19330051920122</v>
       </c>
       <c r="B33" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C33" t="s">
         <v>276</v>
       </c>
       <c r="D33" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="E33" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="F33" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="G33" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="H33" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="I33" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="J33" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>
